--- a/report_cotizacion/List_Cotizador.xlsx
+++ b/report_cotizacion/List_Cotizador.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repo_GitHub\Aircraft\report_cotizacion\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F728845E-3E21-4466-81BF-E0E62384B5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40860" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -388,8 +382,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,13 +435,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,21 +446,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -507,7 +490,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -541,7 +524,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -576,10 +558,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -752,20 +733,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -791,7 +766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -810,14 +785,14 @@
       <c r="F2">
         <v>0.49</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>116</v>
       </c>
       <c r="H2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -836,14 +811,14 @@
       <c r="F3">
         <v>1.45</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>116</v>
       </c>
       <c r="H3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -862,19 +837,19 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" t="s">
         <v>116</v>
       </c>
       <c r="H4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="C5">
         <v>4249</v>
@@ -886,16 +861,16 @@
         <v>5000</v>
       </c>
       <c r="F5">
-        <v>0.35</v>
-      </c>
-      <c r="G5" s="2" t="s">
+        <v>1.51</v>
+      </c>
+      <c r="G5" t="s">
         <v>117</v>
       </c>
       <c r="H5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -914,14 +889,14 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s">
         <v>116</v>
       </c>
       <c r="H6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -938,16 +913,16 @@
         <v>5000</v>
       </c>
       <c r="F7">
-        <v>8.86</v>
-      </c>
-      <c r="G7" s="2" t="s">
+        <v>38.4</v>
+      </c>
+      <c r="G7" t="s">
         <v>117</v>
       </c>
       <c r="H7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -964,16 +939,16 @@
         <v>5000</v>
       </c>
       <c r="F8">
-        <v>0.3</v>
-      </c>
-      <c r="G8" s="2" t="s">
+        <v>1.3</v>
+      </c>
+      <c r="G8" t="s">
         <v>117</v>
       </c>
       <c r="H8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -990,16 +965,16 @@
         <v>5000</v>
       </c>
       <c r="F9">
-        <v>0.3</v>
-      </c>
-      <c r="G9" s="2" t="s">
+        <v>1.3</v>
+      </c>
+      <c r="G9" t="s">
         <v>117</v>
       </c>
       <c r="H9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1016,16 +991,16 @@
         <v>2500</v>
       </c>
       <c r="F10">
-        <v>0.3</v>
-      </c>
-      <c r="G10" s="2" t="s">
+        <v>1.3</v>
+      </c>
+      <c r="G10" t="s">
         <v>117</v>
       </c>
       <c r="H10" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1042,21 +1017,21 @@
         <v>5000</v>
       </c>
       <c r="F11">
-        <v>0.3</v>
-      </c>
-      <c r="G11" s="2" t="s">
+        <v>1.3</v>
+      </c>
+      <c r="G11" t="s">
         <v>117</v>
       </c>
       <c r="H11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C12">
         <v>2770</v>
@@ -1068,16 +1043,16 @@
         <v>5000</v>
       </c>
       <c r="F12">
-        <v>0.02</v>
-      </c>
-      <c r="G12" s="2" t="s">
+        <v>0.09</v>
+      </c>
+      <c r="G12" t="s">
         <v>117</v>
       </c>
       <c r="H12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1094,16 +1069,16 @@
         <v>5000</v>
       </c>
       <c r="F13">
-        <v>0.37</v>
-      </c>
-      <c r="G13" s="2" t="s">
+        <v>1.61</v>
+      </c>
+      <c r="G13" t="s">
         <v>117</v>
       </c>
       <c r="H13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1122,14 +1097,14 @@
       <c r="F14">
         <v>1.39</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" t="s">
         <v>116</v>
       </c>
       <c r="H14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1146,16 +1121,16 @@
         <v>5000</v>
       </c>
       <c r="F15">
-        <v>0.3</v>
-      </c>
-      <c r="G15" s="2" t="s">
+        <v>1.3</v>
+      </c>
+      <c r="G15" t="s">
         <v>117</v>
       </c>
       <c r="H15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1172,16 +1147,16 @@
         <v>2500</v>
       </c>
       <c r="F16">
-        <v>0.3</v>
-      </c>
-      <c r="G16" s="2" t="s">
+        <v>1.3</v>
+      </c>
+      <c r="G16" t="s">
         <v>117</v>
       </c>
       <c r="H16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1200,14 +1175,14 @@
       <c r="F17">
         <v>101.89</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" t="s">
         <v>116</v>
       </c>
       <c r="H17" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1226,14 +1201,14 @@
       <c r="F18">
         <v>1.03</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" t="s">
         <v>116</v>
       </c>
       <c r="H18" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1252,14 +1227,14 @@
       <c r="F19">
         <v>2.12</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" t="s">
         <v>116</v>
       </c>
       <c r="H19" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1278,14 +1253,14 @@
       <c r="F20">
         <v>0.04</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" t="s">
         <v>118</v>
       </c>
       <c r="H20" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1304,14 +1279,14 @@
       <c r="F21">
         <v>0.38</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" t="s">
         <v>116</v>
       </c>
       <c r="H21" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1330,14 +1305,14 @@
       <c r="F22">
         <v>3.35</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" t="s">
         <v>116</v>
       </c>
       <c r="H22" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1356,14 +1331,14 @@
       <c r="F23">
         <v>3.68</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" t="s">
         <v>116</v>
       </c>
       <c r="H23" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1382,14 +1357,14 @@
       <c r="F24">
         <v>4.99</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" t="s">
         <v>116</v>
       </c>
       <c r="H24" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1408,14 +1383,14 @@
       <c r="F25">
         <v>1.45</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" t="s">
         <v>116</v>
       </c>
       <c r="H25" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1434,14 +1409,14 @@
       <c r="F26">
         <v>5.86</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" t="s">
         <v>116</v>
       </c>
       <c r="H26" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1460,14 +1435,14 @@
       <c r="F27">
         <v>4.93</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" t="s">
         <v>116</v>
       </c>
       <c r="H27" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1486,14 +1461,14 @@
       <c r="F28">
         <v>3.45</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" t="s">
         <v>116</v>
       </c>
       <c r="H28" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1512,14 +1487,14 @@
       <c r="F29">
         <v>60.9</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" t="s">
         <v>116</v>
       </c>
       <c r="H29" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1538,14 +1513,14 @@
       <c r="F30">
         <v>7.87</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" t="s">
         <v>116</v>
       </c>
       <c r="H30" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1564,14 +1539,14 @@
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" t="s">
         <v>116</v>
       </c>
       <c r="H31" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1590,19 +1565,19 @@
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" t="s">
         <v>116</v>
       </c>
       <c r="H32" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="C33">
         <v>25910</v>
@@ -1614,16 +1589,16 @@
         <v>5000</v>
       </c>
       <c r="F33">
-        <v>0.17</v>
-      </c>
-      <c r="G33" s="2" t="s">
+        <v>0.75</v>
+      </c>
+      <c r="G33" t="s">
         <v>117</v>
       </c>
       <c r="H33" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1642,14 +1617,14 @@
       <c r="F34">
         <v>0</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" t="s">
         <v>116</v>
       </c>
       <c r="H34" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1666,16 +1641,16 @@
         <v>5000</v>
       </c>
       <c r="F35">
-        <v>0.3</v>
-      </c>
-      <c r="G35" s="2" t="s">
+        <v>1.3</v>
+      </c>
+      <c r="G35" t="s">
         <v>117</v>
       </c>
       <c r="H35" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1694,14 +1669,14 @@
       <c r="F36">
         <v>3.29</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" t="s">
         <v>116</v>
       </c>
       <c r="H36" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1718,16 +1693,16 @@
         <v>2500</v>
       </c>
       <c r="F37">
-        <v>0.76</v>
-      </c>
-      <c r="G37" s="2" t="s">
+        <v>3.3</v>
+      </c>
+      <c r="G37" t="s">
         <v>117</v>
       </c>
       <c r="H37" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1744,21 +1719,21 @@
         <v>2000</v>
       </c>
       <c r="F38">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G38" s="2" t="s">
+        <v>4.77</v>
+      </c>
+      <c r="G38" t="s">
         <v>117</v>
       </c>
       <c r="H38" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="B39">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="C39">
         <v>9902</v>
@@ -1770,16 +1745,16 @@
         <v>10000</v>
       </c>
       <c r="F39">
-        <v>1.5</v>
-      </c>
-      <c r="G39" s="2" t="s">
+        <v>1.37</v>
+      </c>
+      <c r="G39" t="s">
         <v>118</v>
       </c>
       <c r="H39" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1796,16 +1771,16 @@
         <v>10000</v>
       </c>
       <c r="F40">
-        <v>3.3</v>
-      </c>
-      <c r="G40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" t="s">
         <v>118</v>
       </c>
       <c r="H40" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1822,16 +1797,16 @@
         <v>10000</v>
       </c>
       <c r="F41">
-        <v>0.52</v>
-      </c>
-      <c r="G41" s="2" t="s">
+        <v>2.25</v>
+      </c>
+      <c r="G41" t="s">
         <v>117</v>
       </c>
       <c r="H41" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1848,16 +1823,16 @@
         <v>3000</v>
       </c>
       <c r="F42">
-        <v>1.26</v>
-      </c>
-      <c r="G42" s="2" t="s">
+        <v>5.47</v>
+      </c>
+      <c r="G42" t="s">
         <v>117</v>
       </c>
       <c r="H42" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -1874,16 +1849,16 @@
         <v>4000</v>
       </c>
       <c r="F43">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="G43" s="2" t="s">
+        <v>2.26</v>
+      </c>
+      <c r="G43" t="s">
         <v>116</v>
       </c>
       <c r="H43" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -1902,14 +1877,14 @@
       <c r="F44">
         <v>37.35</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" t="s">
         <v>116</v>
       </c>
       <c r="H44" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -1926,16 +1901,16 @@
         <v>3000</v>
       </c>
       <c r="F45">
-        <v>88.26</v>
-      </c>
-      <c r="G45" s="2" t="s">
+        <v>88.26000000000001</v>
+      </c>
+      <c r="G45" t="s">
         <v>116</v>
       </c>
       <c r="H45" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -1952,16 +1927,16 @@
         <v>5000</v>
       </c>
       <c r="F46">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G46" s="2" t="s">
+        <v>2.39</v>
+      </c>
+      <c r="G46" t="s">
         <v>117</v>
       </c>
       <c r="H46" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -1978,16 +1953,16 @@
         <v>5000</v>
       </c>
       <c r="F47">
-        <v>0.4</v>
-      </c>
-      <c r="G47" s="2" t="s">
+        <v>1.73</v>
+      </c>
+      <c r="G47" t="s">
         <v>117</v>
       </c>
       <c r="H47" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -2006,14 +1981,14 @@
       <c r="F48">
         <v>0</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" t="s">
         <v>116</v>
       </c>
       <c r="H48" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -2032,14 +2007,14 @@
       <c r="F49">
         <v>0</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G49" t="s">
         <v>116</v>
       </c>
       <c r="H49" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -2056,16 +2031,16 @@
         <v>10000</v>
       </c>
       <c r="F50">
-        <v>1.4</v>
-      </c>
-      <c r="G50" s="2" t="s">
+        <v>1.27</v>
+      </c>
+      <c r="G50" t="s">
         <v>118</v>
       </c>
       <c r="H50" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -2082,16 +2057,16 @@
         <v>5000</v>
       </c>
       <c r="F51">
-        <v>0.45</v>
-      </c>
-      <c r="G51" s="2" t="s">
+        <v>1.95</v>
+      </c>
+      <c r="G51" t="s">
         <v>117</v>
       </c>
       <c r="H51" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -2108,16 +2083,16 @@
         <v>5000</v>
       </c>
       <c r="F52">
-        <v>1.5</v>
-      </c>
-      <c r="G52" s="2" t="s">
+        <v>6.51</v>
+      </c>
+      <c r="G52" t="s">
         <v>117</v>
       </c>
       <c r="H52" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -2134,16 +2109,16 @@
         <v>3000</v>
       </c>
       <c r="F53">
-        <v>1.02</v>
-      </c>
-      <c r="G53" s="2" t="s">
+        <v>4.41</v>
+      </c>
+      <c r="G53" t="s">
         <v>117</v>
       </c>
       <c r="H53" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -2162,14 +2137,14 @@
       <c r="F54">
         <v>5.23</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="G54" t="s">
         <v>116</v>
       </c>
       <c r="H54" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -2186,16 +2161,16 @@
         <v>5000</v>
       </c>
       <c r="F55">
-        <v>19.260000000000002</v>
-      </c>
-      <c r="G55" s="2" t="s">
+        <v>19.26</v>
+      </c>
+      <c r="G55" t="s">
         <v>116</v>
       </c>
       <c r="H55" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -2212,16 +2187,16 @@
         <v>5000</v>
       </c>
       <c r="F56">
-        <v>2.02</v>
-      </c>
-      <c r="G56" s="2" t="s">
+        <v>8.75</v>
+      </c>
+      <c r="G56" t="s">
         <v>117</v>
       </c>
       <c r="H56" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -2240,14 +2215,14 @@
       <c r="F57">
         <v>0</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G57" t="s">
         <v>116</v>
       </c>
       <c r="H57" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -2266,14 +2241,14 @@
       <c r="F58">
         <v>26.43</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="G58" t="s">
         <v>116</v>
       </c>
       <c r="H58" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -2292,14 +2267,14 @@
       <c r="F59">
         <v>13.05</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" t="s">
         <v>116</v>
       </c>
       <c r="H59" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -2318,14 +2293,14 @@
       <c r="F60">
         <v>0</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" t="s">
         <v>116</v>
       </c>
       <c r="H60" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -2344,14 +2319,14 @@
       <c r="F61">
         <v>0</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" t="s">
         <v>116</v>
       </c>
       <c r="H61" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -2370,14 +2345,14 @@
       <c r="F62">
         <v>0</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" t="s">
         <v>116</v>
       </c>
       <c r="H62" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -2396,14 +2371,14 @@
       <c r="F63">
         <v>34.86</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="G63" t="s">
         <v>116</v>
       </c>
       <c r="H63" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -2420,16 +2395,16 @@
         <v>5000</v>
       </c>
       <c r="F64">
-        <v>8.7100000000000009</v>
-      </c>
-      <c r="G64" s="2" t="s">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="G64" t="s">
         <v>116</v>
       </c>
       <c r="H64" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -2446,16 +2421,16 @@
         <v>5000</v>
       </c>
       <c r="F65">
-        <v>0.26</v>
-      </c>
-      <c r="G65" s="2" t="s">
+        <v>1.12</v>
+      </c>
+      <c r="G65" t="s">
         <v>117</v>
       </c>
       <c r="H65" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -2474,14 +2449,14 @@
       <c r="F66">
         <v>0</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="G66" t="s">
         <v>116</v>
       </c>
       <c r="H66" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -2500,14 +2475,14 @@
       <c r="F67">
         <v>0</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="G67" t="s">
         <v>116</v>
       </c>
       <c r="H67" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -2526,14 +2501,14 @@
       <c r="F68">
         <v>0</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="G68" t="s">
         <v>116</v>
       </c>
       <c r="H68" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -2550,16 +2525,16 @@
         <v>5000</v>
       </c>
       <c r="F69">
-        <v>0.3</v>
-      </c>
-      <c r="G69" s="2" t="s">
+        <v>1.3</v>
+      </c>
+      <c r="G69" t="s">
         <v>117</v>
       </c>
       <c r="H69" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -2578,14 +2553,14 @@
       <c r="F70">
         <v>0</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="G70" t="s">
         <v>116</v>
       </c>
       <c r="H70" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -2604,14 +2579,14 @@
       <c r="F71">
         <v>8.18</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="G71" t="s">
         <v>116</v>
       </c>
       <c r="H71" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -2630,14 +2605,14 @@
       <c r="F72">
         <v>0</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="G72" t="s">
         <v>116</v>
       </c>
       <c r="H72" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -2654,16 +2629,16 @@
         <v>10000</v>
       </c>
       <c r="F73">
-        <v>2.89</v>
-      </c>
-      <c r="G73" s="2" t="s">
+        <v>2.63</v>
+      </c>
+      <c r="G73" t="s">
         <v>118</v>
       </c>
       <c r="H73" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -2682,19 +2657,19 @@
       <c r="F74">
         <v>2.65</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="G74" t="s">
         <v>116</v>
       </c>
       <c r="H74" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>81</v>
       </c>
       <c r="B75">
-        <v>4.1100000000000003</v>
+        <v>4.11</v>
       </c>
       <c r="C75">
         <v>6122</v>
@@ -2706,16 +2681,16 @@
         <v>2000</v>
       </c>
       <c r="F75">
-        <v>1.23</v>
-      </c>
-      <c r="G75" s="2" t="s">
+        <v>5.34</v>
+      </c>
+      <c r="G75" t="s">
         <v>117</v>
       </c>
       <c r="H75" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -2734,14 +2709,14 @@
       <c r="F76">
         <v>2.62</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="G76" t="s">
         <v>116</v>
       </c>
       <c r="H76" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -2760,14 +2735,14 @@
       <c r="F77">
         <v>28.67</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="G77" t="s">
         <v>116</v>
       </c>
       <c r="H77" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -2786,14 +2761,14 @@
       <c r="F78">
         <v>10.51</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="G78" t="s">
         <v>116</v>
       </c>
       <c r="H78" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -2812,14 +2787,14 @@
       <c r="F79">
         <v>2.81</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="G79" t="s">
         <v>116</v>
       </c>
       <c r="H79" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -2838,14 +2813,14 @@
       <c r="F80">
         <v>6.96</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="G80" t="s">
         <v>116</v>
       </c>
       <c r="H80" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -2864,14 +2839,14 @@
       <c r="F81">
         <v>0</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="G81" t="s">
         <v>116</v>
       </c>
       <c r="H81" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -2888,16 +2863,16 @@
         <v>3000</v>
       </c>
       <c r="F82">
-        <v>0.65</v>
-      </c>
-      <c r="G82" s="2" t="s">
+        <v>2.82</v>
+      </c>
+      <c r="G82" t="s">
         <v>117</v>
       </c>
       <c r="H82" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -2916,14 +2891,14 @@
       <c r="F83">
         <v>31.46</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="G83" t="s">
         <v>116</v>
       </c>
       <c r="H83" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -2942,19 +2917,19 @@
       <c r="F84">
         <v>36.25</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="G84" t="s">
         <v>116</v>
       </c>
       <c r="H84" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>91</v>
       </c>
       <c r="B85">
-        <v>18.649999999999999</v>
+        <v>18.65</v>
       </c>
       <c r="C85">
         <v>1784</v>
@@ -2968,14 +2943,14 @@
       <c r="F85">
         <v>27.04</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="G85" t="s">
         <v>116</v>
       </c>
       <c r="H85" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -2994,14 +2969,14 @@
       <c r="F86">
         <v>52.68</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="G86" t="s">
         <v>116</v>
       </c>
       <c r="H86" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -3018,16 +2993,16 @@
         <v>5000</v>
       </c>
       <c r="F87">
-        <v>17.920000000000002</v>
-      </c>
-      <c r="G87" s="2" t="s">
+        <v>17.92</v>
+      </c>
+      <c r="G87" t="s">
         <v>116</v>
       </c>
       <c r="H87" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -3046,14 +3021,14 @@
       <c r="F88">
         <v>27</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="G88" t="s">
         <v>116</v>
       </c>
       <c r="H88" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -3072,14 +3047,14 @@
       <c r="F89">
         <v>33.22</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="G89" t="s">
         <v>116</v>
       </c>
       <c r="H89" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -3096,16 +3071,16 @@
         <v>5000</v>
       </c>
       <c r="F90">
-        <v>5.41</v>
-      </c>
-      <c r="G90" s="2" t="s">
+        <v>23.44</v>
+      </c>
+      <c r="G90" t="s">
         <v>117</v>
       </c>
       <c r="H90" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -3124,14 +3099,14 @@
       <c r="F91">
         <v>37.29</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="G91" t="s">
         <v>116</v>
       </c>
       <c r="H91" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -3150,14 +3125,14 @@
       <c r="F92">
         <v>0</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="G92" t="s">
         <v>116</v>
       </c>
       <c r="H92" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -3174,16 +3149,16 @@
         <v>2500</v>
       </c>
       <c r="F93">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G93" s="2" t="s">
+        <v>0.14</v>
+      </c>
+      <c r="G93" t="s">
         <v>116</v>
       </c>
       <c r="H93" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -3202,19 +3177,19 @@
       <c r="F94">
         <v>0</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="G94" t="s">
         <v>116</v>
       </c>
       <c r="H94" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>101</v>
       </c>
       <c r="B95">
-        <v>5.1100000000000003</v>
+        <v>5.11</v>
       </c>
       <c r="C95">
         <v>549</v>
@@ -3228,14 +3203,14 @@
       <c r="F95">
         <v>7.41</v>
       </c>
-      <c r="G95" s="2" t="s">
+      <c r="G95" t="s">
         <v>116</v>
       </c>
       <c r="H95" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -3254,14 +3229,14 @@
       <c r="F96">
         <v>0</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="G96" t="s">
         <v>116</v>
       </c>
       <c r="H96" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -3278,16 +3253,16 @@
         <v>5000</v>
       </c>
       <c r="F97">
-        <v>0.63</v>
-      </c>
-      <c r="G97" s="2" t="s">
+        <v>2.74</v>
+      </c>
+      <c r="G97" t="s">
         <v>117</v>
       </c>
       <c r="H97" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -3304,16 +3279,16 @@
         <v>5000</v>
       </c>
       <c r="F98">
-        <v>9.6300000000000008</v>
-      </c>
-      <c r="G98" s="2" t="s">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="G98" t="s">
         <v>116</v>
       </c>
       <c r="H98" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -3332,19 +3307,19 @@
       <c r="F99">
         <v>1.74</v>
       </c>
-      <c r="G99" s="2" t="s">
+      <c r="G99" t="s">
         <v>116</v>
       </c>
       <c r="H99" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>106</v>
       </c>
       <c r="B100">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="C100">
         <v>8800</v>
@@ -3356,16 +3331,16 @@
         <v>5000</v>
       </c>
       <c r="F100">
-        <v>1.53</v>
-      </c>
-      <c r="G100" s="2" t="s">
+        <v>6.63</v>
+      </c>
+      <c r="G100" t="s">
         <v>117</v>
       </c>
       <c r="H100" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -3384,19 +3359,19 @@
       <c r="F101">
         <v>0</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="G101" t="s">
         <v>116</v>
       </c>
       <c r="H101" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>108</v>
       </c>
       <c r="B102">
-        <v>1.0900000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="C102">
         <v>367</v>
@@ -3410,14 +3385,14 @@
       <c r="F102">
         <v>1.58</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="G102" t="s">
         <v>116</v>
       </c>
       <c r="H102" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>109</v>
       </c>
@@ -3436,14 +3411,14 @@
       <c r="F103">
         <v>0</v>
       </c>
-      <c r="G103" s="2" t="s">
+      <c r="G103" t="s">
         <v>116</v>
       </c>
       <c r="H103" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>110</v>
       </c>
@@ -3462,7 +3437,7 @@
       <c r="F104">
         <v>0.7</v>
       </c>
-      <c r="G104" s="2" t="s">
+      <c r="G104" t="s">
         <v>116</v>
       </c>
       <c r="H104" t="s">

--- a/report_cotizacion/List_Cotizador.xlsx
+++ b/report_cotizacion/List_Cotizador.xlsx
@@ -367,10 +367,10 @@
     <t>1.45</t>
   </si>
   <si>
-    <t>0.30</t>
-  </si>
-  <si>
-    <t>1.32</t>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>1.20</t>
   </si>
   <si>
     <t>Calculo basado en stock</t>
